--- a/Database/Finalize logic tree/Chevrolet_Impala_Power window not working.xlsx
+++ b/Database/Finalize logic tree/Chevrolet_Impala_Power window not working.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Combined Finalize logic tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F188A737-22E0-42CA-897F-D9E749E1CE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C375C3-80AD-4A74-897C-08646CEF13C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{BF19B581-7FDE-4BE1-9178-468339090834}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Node1</t>
   </si>
@@ -502,11 +502,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264F604E-4CB7-442D-A5F6-55D02FB1BCC4}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -686,58 +684,91 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
